--- a/biology/Histoire de la zoologie et de la botanique/Alicia_Lourteig/Alicia_Lourteig.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alicia_Lourteig/Alicia_Lourteig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alicia Lourteig est une botaniste  argentine, née le 17 décembre 1913 à Buenos Aires et morte le 30 juillet 2003.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait ses études en Argentine et y obtient son doctorat de biochimie et de pharmacie à la faculté des sciences médicales de Buenos Aires en 1946. Lourteig travaille à l’Institut Miguel Lillo de Tucumán de 1938 à 1946. De 1938 à 1946, elle travaille à l’Institut Darwinion et travaille sur de grands herbiers comme ceux des Jardins botaniques royaux de Kew (1948 à 1950), de Stockholm (1950-1951), de Copenhague (1951), de Boston (1952-1953) ou de Washington (1953).
 À la demande de Jean-Henri Humbert (1887-1967), elle est recrutée au CNRS en 1955 et travaille dès lors au laboratoire de phanérogamie du Muséum national d'histoire naturelle. Elle devient maître de recherche en 1979.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C. Sastre (2003). Alicia Lourteig (1913-2003). Adansonia, série 3, 25 (2) : 149-150.
 Lourteig est l’abréviation botanique standard de Alicia Lourteig.
